--- a/currency_rates.xlsx
+++ b/currency_rates.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Currency Rates" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="24.11.2023" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
